--- a/DissertationText/Results/UsabilityResults.xlsx
+++ b/DissertationText/Results/UsabilityResults.xlsx
@@ -27,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>User 1</t>
+  </si>
+  <si>
+    <t>User 2</t>
+  </si>
+  <si>
+    <t>User 3</t>
   </si>
 </sst>
 </file>
@@ -344,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,6 +485,136 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DissertationText/Results/UsabilityResults.xlsx
+++ b/DissertationText/Results/UsabilityResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>User 1</t>
   </si>
@@ -36,6 +36,24 @@
   </si>
   <si>
     <t>User 3</t>
+  </si>
+  <si>
+    <t>User 4</t>
+  </si>
+  <si>
+    <t>User 5</t>
+  </si>
+  <si>
+    <t>User 6</t>
+  </si>
+  <si>
+    <t>User 7</t>
+  </si>
+  <si>
+    <t>User 8</t>
+  </si>
+  <si>
+    <t>User 9</t>
   </si>
 </sst>
 </file>
@@ -71,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,272 +369,666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2">
-        <v>4</v>
-      </c>
-      <c r="R2">
-        <v>4</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>4</v>
-      </c>
-      <c r="U2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>4</v>
+      </c>
+      <c r="U2" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>4</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>5</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
-      <c r="U3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>4</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>5</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>5</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2</v>
+      </c>
+      <c r="T10" s="1">
+        <v>3</v>
+      </c>
+      <c r="U10" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>